--- a/biology/Médecine/Érythraphérèse/Érythraphérèse.xlsx
+++ b/biology/Médecine/Érythraphérèse/Érythraphérèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rythraph%C3%A9r%C3%A8se</t>
+          <t>Érythraphérèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'érythrophérèse est le prélèvement des globules rouges par aphérèse. Le sang prélevé chez le sujet, est centrifugé dans un séparateur de sang, les globules rouges sont prélevés dans une poche et les autres éléments sanguins, plasma, globules blancs et plaquettes sont retournés au sujet.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rythraph%C3%A9r%C3%A8se</t>
+          <t>Érythraphérèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Don du sang</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette technique permet de prélever les globules rouges chez le donneur de sang en quantité plus importante que lors du don de sang total.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rythraph%C3%A9r%C3%A8se</t>
+          <t>Érythraphérèse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Échange érythrocytaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez le patient, l'érythrophérèse est encore appelée échange érythrocytaire : les globules rouges du patient sont prélevés par aphérèse et remplacés (échangés) par des globules rouges de donneurs. L'échange érythrocytaire est une aphérèse thérapeutique. La principale pathologie traitée par échange érythrocytaire est la drépanocytose, une maladie de l'hémoglobine.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89rythraph%C3%A9r%C3%A8se</t>
+          <t>Érythraphérèse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Polyglobulie de Vaquez</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un traitement dans la polyglobulie de Vaquez, une hémopathie myéloïde entrainant une forte augmentation des globules rouges dans le sang.
  Portail de la biologie   Portail de la médecine                    </t>
